--- a/Viewer_Interests_Evaluation_Service/src/main/resources/Files/Interests.xlsx
+++ b/Viewer_Interests_Evaluation_Service/src/main/resources/Files/Interests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polina/IdeaProjects/Advertisement-Selecting/Viewer Interests Evaluation Service/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polina/IdeaProjects/Advertisement-Selecting/Viewer_Interests_Evaluation_Service/src/main/resources/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1846C0B-6E53-2B4E-9B22-9DE55F3FE24D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E2A478-27E9-7148-B5A0-906935F0204E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="15960" xr2:uid="{2C71D226-A44A-CF49-9FEB-6B90A8A94B8C}"/>
+    <workbookView xWindow="680" yWindow="920" windowWidth="27840" windowHeight="15960" xr2:uid="{2C71D226-A44A-CF49-9FEB-6B90A8A94B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,18 +503,6 @@
       <c r="B4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>0.4</v>
-      </c>
-      <c r="D4">
-        <v>0.5</v>
-      </c>
-      <c r="E4">
-        <v>0.3</v>
-      </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
       <c r="G4">
         <v>0.3</v>
       </c>
@@ -538,18 +526,6 @@
       <c r="B5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>0.1</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
-      </c>
-      <c r="E5">
-        <v>0.7</v>
-      </c>
-      <c r="F5">
-        <v>0.4</v>
-      </c>
       <c r="G5">
         <v>0.6</v>
       </c>
@@ -576,9 +552,6 @@
       <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="E6">
-        <v>0.5</v>
-      </c>
       <c r="F6">
         <v>0.6</v>
       </c>
@@ -593,9 +566,6 @@
       <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="E7">
-        <v>0.6</v>
-      </c>
       <c r="F7">
         <v>0.5</v>
       </c>
@@ -606,9 +576,6 @@
       </c>
       <c r="D8">
         <v>0.9</v>
-      </c>
-      <c r="E8">
-        <v>0.73</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">

--- a/Viewer_Interests_Evaluation_Service/src/main/resources/Files/Interests.xlsx
+++ b/Viewer_Interests_Evaluation_Service/src/main/resources/Files/Interests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polina/IdeaProjects/Advertisement-Selecting/Viewer_Interests_Evaluation_Service/src/main/resources/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E2A478-27E9-7148-B5A0-906935F0204E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68635430-8C96-5249-B0C7-5282FC741063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="920" windowWidth="27840" windowHeight="15960" xr2:uid="{2C71D226-A44A-CF49-9FEB-6B90A8A94B8C}"/>
   </bookViews>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4548735E-A1FB-3D46-A995-4FB0618A3ED5}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,9 +515,6 @@
       <c r="J4">
         <v>0.4</v>
       </c>
-      <c r="K4">
-        <v>0.6</v>
-      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -538,9 +535,6 @@
       <c r="J5">
         <v>0.9</v>
       </c>
-      <c r="K5">
-        <v>0.6</v>
-      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -598,28 +592,6 @@
       </c>
       <c r="E10">
         <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>0.4</v>
-      </c>
-      <c r="E11">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>0.4</v>
-      </c>
-      <c r="E12">
-        <v>0.56999999999999995</v>
       </c>
     </row>
   </sheetData>
